--- a/Exercises/1.Machine Learning/Code/0.General/test.xlsx
+++ b/Exercises/1.Machine Learning/Code/0.General/test.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +21,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Warning Text</t>
+  </si>
+  <si>
+    <t>Explanatory Text</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Headline 2</t>
+  </si>
+  <si>
+    <t>Headline 3</t>
+  </si>
+  <si>
+    <t>Headline 4</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Followed Hyperlink</t>
+  </si>
+  <si>
+    <t>Linked Cell</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Check Cell</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>20 % - Accent1</t>
+  </si>
+  <si>
+    <t>40 % - Accent1</t>
+  </si>
+  <si>
+    <t>60 % - Accent1</t>
+  </si>
+  <si>
+    <t>Accent2</t>
+  </si>
+  <si>
+    <t>20 % - Accent2</t>
+  </si>
+  <si>
+    <t>40 % - Accent2</t>
+  </si>
+  <si>
+    <t>60 % - Accent2</t>
+  </si>
+  <si>
+    <t>Accent3</t>
+  </si>
+  <si>
+    <t>20 % - Accent3</t>
+  </si>
+  <si>
+    <t>40 % - Accent3</t>
+  </si>
+  <si>
+    <t>60 % - Accent3</t>
+  </si>
+  <si>
+    <t>Accent4</t>
+  </si>
+  <si>
+    <t>20 % - Accent4</t>
+  </si>
+  <si>
+    <t>40 % - Accent4</t>
+  </si>
+  <si>
+    <t>60 % - Accent4</t>
+  </si>
+  <si>
+    <t>Accent5</t>
+  </si>
+  <si>
+    <t>20 % - Accent5</t>
+  </si>
+  <si>
+    <t>40 % - Accent5</t>
+  </si>
+  <si>
+    <t>60 % - Accent5</t>
+  </si>
+  <si>
+    <t>Accent6</t>
+  </si>
+  <si>
+    <t>20 % - Accent6</t>
+  </si>
+  <si>
+    <t>40 % - Accent6</t>
+  </si>
+  <si>
+    <t>60 % - Accent6</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,7 +158,7 @@
     <numFmt formatCode="yyyymmdd" numFmtId="165"/>
     <numFmt formatCode="0.0%" numFmtId="166"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,16 +166,338 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="32">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -52,23 +505,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="2" fillId="4" fontId="17" numFmtId="0"/>
+    <xf borderId="8" fillId="2" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="5" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="23" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="12"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf borderId="2" fillId="4" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf borderId="8" fillId="2" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf borderId="9" fillId="5" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="17"/>
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="18"/>
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="19"/>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="21"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="22"/>
+    <xf borderId="0" fillId="11" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="23"/>
+    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="25"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="26"/>
+    <xf borderId="0" fillId="15" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="27"/>
+    <xf borderId="0" fillId="16" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="28"/>
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="29"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="30"/>
+    <xf borderId="0" fillId="19" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="31"/>
+    <xf borderId="0" fillId="20" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="32"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="33"/>
+    <xf borderId="0" fillId="22" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="34"/>
+    <xf borderId="0" fillId="23" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35"/>
+    <xf borderId="0" fillId="24" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="36"/>
+    <xf borderId="0" fillId="25" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="37"/>
+    <xf borderId="0" fillId="26" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="38"/>
+    <xf borderId="0" fillId="27" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="39"/>
+    <xf borderId="0" fillId="28" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="40"/>
+    <xf borderId="0" fillId="29" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41"/>
+    <xf borderId="0" fillId="30" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="42"/>
+    <xf borderId="0" fillId="31" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="44">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Pandas" xfId="1"/>
+    <cellStyle hidden="0" name="highlight" xfId="2"/>
+    <cellStyle builtinId="22" hidden="0" name="Calculation" xfId="3"/>
+    <cellStyle builtinId="25" hidden="0" name="Total" xfId="4"/>
+    <cellStyle builtinId="10" hidden="0" name="Note" xfId="5"/>
+    <cellStyle builtinId="11" hidden="0" name="Warning Text" xfId="6"/>
+    <cellStyle builtinId="53" hidden="0" name="Explanatory Text" xfId="7"/>
+    <cellStyle builtinId="15" hidden="0" name="Title" xfId="8"/>
+    <cellStyle builtinId="16" hidden="0" name="Headline 1" xfId="9"/>
+    <cellStyle builtinId="18" hidden="0" name="Headline 3" xfId="10"/>
+    <cellStyle builtinId="19" hidden="0" name="Headline 4" xfId="11"/>
+    <cellStyle builtinId="8" hidden="0" name="Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="0" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="24" hidden="0" name="Linked Cell" xfId="14"/>
+    <cellStyle builtinId="20" hidden="0" name="Input" xfId="15"/>
+    <cellStyle builtinId="21" hidden="0" name="Output" xfId="16"/>
+    <cellStyle builtinId="23" hidden="0" name="Check Cell" xfId="17"/>
+    <cellStyle builtinId="26" hidden="0" name="Good" xfId="18"/>
+    <cellStyle builtinId="27" hidden="0" name="Bad" xfId="19"/>
+    <cellStyle builtinId="28" hidden="0" name="Neutral" xfId="20"/>
+    <cellStyle builtinId="30" hidden="0" name="20 % - Accent1" xfId="21"/>
+    <cellStyle builtinId="31" hidden="0" name="40 % - Accent1" xfId="22"/>
+    <cellStyle builtinId="32" hidden="0" name="60 % - Accent1" xfId="23"/>
+    <cellStyle builtinId="33" hidden="0" name="Accent2" xfId="24"/>
+    <cellStyle builtinId="34" hidden="0" name="20 % - Accent2" xfId="25"/>
+    <cellStyle builtinId="35" hidden="0" name="40 % - Accent2" xfId="26"/>
+    <cellStyle builtinId="36" hidden="0" name="60 % - Accent2" xfId="27"/>
+    <cellStyle builtinId="37" hidden="0" name="Accent3" xfId="28"/>
+    <cellStyle builtinId="38" hidden="0" name="20 % - Accent3" xfId="29"/>
+    <cellStyle builtinId="39" hidden="0" name="40 % - Accent3" xfId="30"/>
+    <cellStyle builtinId="40" hidden="0" name="60 % - Accent3" xfId="31"/>
+    <cellStyle builtinId="41" hidden="0" name="Accent4" xfId="32"/>
+    <cellStyle builtinId="42" hidden="0" name="20 % - Accent4" xfId="33"/>
+    <cellStyle builtinId="43" hidden="0" name="40 % - Accent4" xfId="34"/>
+    <cellStyle builtinId="44" hidden="0" name="60 % - Accent4" xfId="35"/>
+    <cellStyle builtinId="45" hidden="0" name="Accent5" xfId="36"/>
+    <cellStyle builtinId="46" hidden="0" name="20 % - Accent5" xfId="37"/>
+    <cellStyle builtinId="47" hidden="0" name="40 % - Accent5" xfId="38"/>
+    <cellStyle builtinId="48" hidden="0" name="60 % - Accent5" xfId="39"/>
+    <cellStyle builtinId="49" hidden="0" name="Accent6" xfId="40"/>
+    <cellStyle builtinId="50" hidden="0" name="20 % - Accent6" xfId="41"/>
+    <cellStyle builtinId="51" hidden="0" name="40 % - Accent6" xfId="42"/>
+    <cellStyle builtinId="52" hidden="0" name="60 % - Accent6" xfId="43"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00EE1111"/>
+          <bgColor rgb="00EE1111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3429000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,4 +1208,560 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="n"/>
+      <c r="B1" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>-1.049109648347379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4661892816326676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.578585289551554</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8119670681242142</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.2904799836230778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.370560321147436</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.112425215829226</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5628799360463778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.166637515132605</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.4238436287759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5453740238453212</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1833352048237561</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.196669534768418</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.410913053147368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.223242406727018</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0006852855379421093</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.11745032841222</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.136054338080161</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5544892507779462</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.8169117569402102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2111438111922186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.416400981777025</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.192633759660199</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.58933208487911</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.616104812810757</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.341263318899744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3214173523069781</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.2089230962032505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6772258334959069</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.547588547216894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8847041572378053</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7433417411297256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.212458292338667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.874366166898224</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7355386066988342</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2438553070072317</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6943607118235726</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.2308080169457711</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.267521512415124</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.694960560633838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2421394778239451</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1437423921381797</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.43576945789607</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4255395656350027</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9729429346813921</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.305545181678317</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1506679863362535</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.345546267035328</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.210480672248175</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8938503978275605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
+        <v>0.6346908517842426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
+        <v>0.6310156679660479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
+        <v>0.5866368182161164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="n">
+        <v>0.1556720076585962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="n">
+        <v>0.228415212772006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="n">
+        <v>0.6809678179317531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="n">
+        <v>0.2425636424343075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="n">
+        <v>0.3488783111315863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="n">
+        <v>0.4776245517760238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="n">
+        <v>0.6072174331134369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="n">
+        <v>0.868229768933882</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A10">
+    <cfRule dxfId="0" operator="lessThan" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Exercises/1.Machine Learning/Code/0.General/test.xlsx
+++ b/Exercises/1.Machine Learning/Code/0.General/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +621,9 @@
   </borders>
   <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="2" fillId="2" fontId="6" numFmtId="0"/>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
@@ -791,7 +793,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -806,13 +808,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1211,7 +1213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1223,11 +1225,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,178 +1279,182 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>-1.049109648347379</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4661892816326676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.578585289551554</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8119670681242142</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.2904799836230778</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.370560321147436</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.112425215829226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5628799360463778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.166637515132605</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.4238436287759</v>
-      </c>
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5453740238453212</v>
+        <v>1.010168615219516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1833352048237561</v>
+        <v>-0.01144206694477454</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.196669534768418</v>
+        <v>-0.6376151040859934</v>
       </c>
       <c r="E3" t="n">
-        <v>1.410913053147368</v>
+        <v>-1.219081233574793</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.223242406727018</v>
+        <v>-1.48736959777861</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006852855379421093</v>
+        <v>-0.315689569403697</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.11745032841222</v>
+        <v>-0.1153901395600785</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.136054338080161</v>
+        <v>-0.6082780970690009</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5544892507779462</v>
+        <v>1.138425034112564</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8169117569402102</v>
+        <v>-0.80263977448479</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2111438111922186</v>
+        <v>-0.1081144013306337</v>
       </c>
       <c r="C4" t="n">
-        <v>1.416400981777025</v>
+        <v>-0.587534499886498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192633759660199</v>
+        <v>-0.398719608935888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58933208487911</v>
+        <v>-1.446719149065169</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.616104812810757</v>
+        <v>-0.8260403944228726</v>
       </c>
       <c r="G4" t="n">
-        <v>0.341263318899744</v>
+        <v>0.7042671173318381</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3214173523069781</v>
+        <v>1.407300077984563</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2089230962032505</v>
+        <v>-1.280804700485434</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6772258334959069</v>
+        <v>-0.8429664179398549</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.547588547216894</v>
+        <v>0.3580950908941087</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8847041572378053</v>
+        <v>0.9150352937030028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7433417411297256</v>
+        <v>1.819978093551571</v>
       </c>
       <c r="D5" t="n">
-        <v>1.212458292338667</v>
+        <v>-0.1645114079888902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874366166898224</v>
+        <v>1.180522602880276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7355386066988342</v>
+        <v>-0.1456197263284336</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2438553070072317</v>
+        <v>1.063666167557041</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6943607118235726</v>
+        <v>0.834538489004939</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2308080169457711</v>
+        <v>-0.8156177621063384</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.267521512415124</v>
+        <v>0.7166144971116232</v>
       </c>
       <c r="K5" t="n">
-        <v>1.694960560633838</v>
+        <v>-0.2648501410773855</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.70748112030846</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3786617085402988</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3709527962999463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.092215986579112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8997302014379132</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.3317962715332153</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08575020780624214</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.07375992734495755</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.5517454458410759</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.03753800628772042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.2421394778239451</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1437423921381797</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.43576945789607</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4255395656350027</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.9729429346813921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.305545181678317</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.1506679863362535</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-1.345546267035328</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.210480672248175</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8938503978275605</v>
+      <c r="B7" t="n">
+        <v>-0.3852729168885622</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.128521516766688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9073432094584449</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8684851421312163</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03774840727556877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.215345986394486</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.3839787694408291</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.381084805933327</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6581813648959519</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2.01989282121127</v>
       </c>
     </row>
   </sheetData>
@@ -1703,57 +1707,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>0.6346908517842426</v>
+        <v>0.3855013583759733</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>0.6310156679660479</v>
+        <v>0.5885656073525397</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>0.5866368182161164</v>
+        <v>0.693547391146485</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>0.1556720076585962</v>
+        <v>0.6287141555668755</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>0.228415212772006</v>
+        <v>0.7934080216452501</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>0.6809678179317531</v>
+        <v>0.4755112895937286</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>0.2425636424343075</v>
+        <v>0.2311673250043259</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>0.3488783111315863</v>
+        <v>0.8085753766406356</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>0.4776245517760238</v>
+        <v>0.6670202361855581</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>0.6072174331134369</v>
+        <v>0.7901458304643063</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>0.868229768933882</v>
+        <v>0.5542863064069712</v>
       </c>
     </row>
   </sheetData>

--- a/Exercises/1.Machine Learning/Code/0.General/test.xlsx
+++ b/Exercises/1.Machine Learning/Code/0.General/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +621,9 @@
   </borders>
   <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="2" fillId="2" fontId="6" numFmtId="0"/>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
@@ -791,7 +793,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -806,13 +808,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1211,7 +1213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1223,11 +1225,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,178 +1279,182 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>-1.049109648347379</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4661892816326676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.578585289551554</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8119670681242142</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.2904799836230778</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.370560321147436</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.112425215829226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5628799360463778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.166637515132605</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.4238436287759</v>
-      </c>
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5453740238453212</v>
+        <v>-0.6480532680112475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1833352048237561</v>
+        <v>1.661700258216212</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.196669534768418</v>
+        <v>1.080574401836563</v>
       </c>
       <c r="E3" t="n">
-        <v>1.410913053147368</v>
+        <v>-0.5092231765143697</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.223242406727018</v>
+        <v>0.715611968122377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006852855379421093</v>
+        <v>-0.4113785329645508</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.11745032841222</v>
+        <v>-1.215721839517409</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.136054338080161</v>
+        <v>0.3104289139996025</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5544892507779462</v>
+        <v>-0.01565840005061839</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8169117569402102</v>
+        <v>0.3365036933637836</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2111438111922186</v>
+        <v>1.658687903843877</v>
       </c>
       <c r="C4" t="n">
-        <v>1.416400981777025</v>
+        <v>1.609701293834269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192633759660199</v>
+        <v>0.2078576994635437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58933208487911</v>
+        <v>-0.1230376877128756</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.616104812810757</v>
+        <v>-1.827904024379866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.341263318899744</v>
+        <v>1.313124292628576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3214173523069781</v>
+        <v>0.04185348009452183</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2089230962032505</v>
+        <v>-1.258822888004707</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6772258334959069</v>
+        <v>0.1619718123560985</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.547588547216894</v>
+        <v>0.7692634977489053</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8847041572378053</v>
+        <v>1.259011640573544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7433417411297256</v>
+        <v>-0.5767536378786682</v>
       </c>
       <c r="D5" t="n">
-        <v>1.212458292338667</v>
+        <v>0.187862193325868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874366166898224</v>
+        <v>-0.6783433569247463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7355386066988342</v>
+        <v>-1.137263231371896</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2438553070072317</v>
+        <v>-1.293666645563232</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6943607118235726</v>
+        <v>-0.04761981314074765</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2308080169457711</v>
+        <v>0.2540851557561447</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.267521512415124</v>
+        <v>-0.7549518140304624</v>
       </c>
       <c r="K5" t="n">
-        <v>1.694960560633838</v>
+        <v>-0.2869080270714423</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.715702721288743</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1106514305016671</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.2870154375904044</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.5737905437635209</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.45365501819905</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.461879743790639</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.3504666741900375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.277612415861545</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.9815725354421996</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.9059640330843427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.2421394778239451</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1437423921381797</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.43576945789607</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4255395656350027</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.9729429346813921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.305545181678317</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.1506679863362535</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-1.345546267035328</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.210480672248175</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8938503978275605</v>
+      <c r="B7" t="n">
+        <v>-0.6181333904181439</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6364318461551975</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.008967942214748</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.676182013868974</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.201980200642775</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1892878306054119</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.6730373850109445</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8642065637414277</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.246835920524387</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7865781392724452</v>
       </c>
     </row>
   </sheetData>
@@ -1703,57 +1707,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>0.6346908517842426</v>
+        <v>0.5032187071675436</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>0.6310156679660479</v>
+        <v>0.3615246613131675</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>0.5866368182161164</v>
+        <v>0.8520298177528801</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>0.1556720076585962</v>
+        <v>0.475700732034493</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>0.228415212772006</v>
+        <v>0.256244031363291</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>0.6809678179317531</v>
+        <v>0.8346760788851801</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>0.2425636424343075</v>
+        <v>0.591836442383403</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>0.3488783111315863</v>
+        <v>0.4808739524808172</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>0.4776245517760238</v>
+        <v>0.5653633368554952</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>0.6072174331134369</v>
+        <v>0.2695540488107472</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>0.868229768933882</v>
+        <v>0.1319307462588565</v>
       </c>
     </row>
   </sheetData>

--- a/Exercises/1.Machine Learning/Code/0.General/test.xlsx
+++ b/Exercises/1.Machine Learning/Code/0.General/test.xlsx
@@ -1,154 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="format" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Warning Text</t>
-  </si>
-  <si>
-    <t>Explanatory Text</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Headline 2</t>
-  </si>
-  <si>
-    <t>Headline 3</t>
-  </si>
-  <si>
-    <t>Headline 4</t>
-  </si>
-  <si>
-    <t>Hyperlink</t>
-  </si>
-  <si>
-    <t>Followed Hyperlink</t>
-  </si>
-  <si>
-    <t>Linked Cell</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Check Cell</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>20 % - Accent1</t>
-  </si>
-  <si>
-    <t>40 % - Accent1</t>
-  </si>
-  <si>
-    <t>60 % - Accent1</t>
-  </si>
-  <si>
-    <t>Accent2</t>
-  </si>
-  <si>
-    <t>20 % - Accent2</t>
-  </si>
-  <si>
-    <t>40 % - Accent2</t>
-  </si>
-  <si>
-    <t>60 % - Accent2</t>
-  </si>
-  <si>
-    <t>Accent3</t>
-  </si>
-  <si>
-    <t>20 % - Accent3</t>
-  </si>
-  <si>
-    <t>40 % - Accent3</t>
-  </si>
-  <si>
-    <t>60 % - Accent3</t>
-  </si>
-  <si>
-    <t>Accent4</t>
-  </si>
-  <si>
-    <t>20 % - Accent4</t>
-  </si>
-  <si>
-    <t>40 % - Accent4</t>
-  </si>
-  <si>
-    <t>60 % - Accent4</t>
-  </si>
-  <si>
-    <t>Accent5</t>
-  </si>
-  <si>
-    <t>20 % - Accent5</t>
-  </si>
-  <si>
-    <t>40 % - Accent5</t>
-  </si>
-  <si>
-    <t>60 % - Accent5</t>
-  </si>
-  <si>
-    <t>Accent6</t>
-  </si>
-  <si>
-    <t>20 % - Accent6</t>
-  </si>
-  <si>
-    <t>40 % - Accent6</t>
-  </si>
-  <si>
-    <t>60 % - Accent6</t>
-  </si>
-  <si>
-    <t>Pandas</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,7 +662,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -808,13 +677,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1111,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,17 +988,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" s="1" t="n">
         <v>40380</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" s="2" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="3"/>
+    <row r="5">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1175,12 +1045,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="D2" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" t="n">
         <v>138</v>
       </c>
@@ -1191,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -1199,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -1213,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1227,7 +1097,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1245,7 +1115,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="6" t="n">
         <v>0</v>
@@ -1278,183 +1148,183 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2" s="7" t="n"/>
       <c r="B2" s="10" t="n"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.010168615219516</v>
+        <v>1.165182950264268</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01144206694477454</v>
+        <v>2.321477079594849</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6376151040859934</v>
+        <v>2.432609835191326</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.219081233574793</v>
+        <v>0.520856831676422</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.48736959777861</v>
+        <v>0.287588238344549</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.315689569403697</v>
+        <v>-1.350166219917216</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1153901395600785</v>
+        <v>-1.597783249830729</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6082780970690009</v>
+        <v>-0.3998621809156324</v>
       </c>
       <c r="J3" t="n">
-        <v>1.138425034112564</v>
+        <v>-1.293041147769337</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.80263977448479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-1.027401032638613</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1081144013306337</v>
+        <v>0.2733655803237659</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.587534499886498</v>
+        <v>-0.006102067294422192</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.398719608935888</v>
+        <v>-1.248255909476067</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.446719149065169</v>
+        <v>-0.5226460869889649</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8260403944228726</v>
+        <v>0.3804293168102227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7042671173318381</v>
+        <v>0.7508342310834417</v>
       </c>
       <c r="H4" t="n">
-        <v>1.407300077984563</v>
+        <v>-0.3790812800021143</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.280804700485434</v>
+        <v>-0.3198372674635649</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8429664179398549</v>
+        <v>-0.1012404347716631</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3580950908941087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>1.664464432320891</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9150352937030028</v>
+        <v>1.704629769026192</v>
       </c>
       <c r="C5" t="n">
-        <v>1.819978093551571</v>
+        <v>0.7288057424966128</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1645114079888902</v>
+        <v>-0.5476298903173701</v>
       </c>
       <c r="E5" t="n">
-        <v>1.180522602880276</v>
+        <v>1.607312653427584</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1456197263284336</v>
+        <v>1.192772156029819</v>
       </c>
       <c r="G5" t="n">
-        <v>1.063666167557041</v>
+        <v>-3.381309533808121</v>
       </c>
       <c r="H5" t="n">
-        <v>0.834538489004939</v>
+        <v>0.3634733876329173</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8156177621063384</v>
+        <v>-0.2008458027606676</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7166144971116232</v>
+        <v>0.763382910127209</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2648501410773855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.5407204354770876</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.70748112030846</v>
+        <v>1.519539863110409</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3786617085402988</v>
+        <v>-1.664767485940177</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3709527962999463</v>
+        <v>-0.5738394042855993</v>
       </c>
       <c r="E6" t="n">
-        <v>1.092215986579112</v>
+        <v>-0.2216914280459178</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8997302014379132</v>
+        <v>0.000566851136783025</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3317962715332153</v>
+        <v>-1.029423694700266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08575020780624214</v>
+        <v>-0.8524508315476202</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07375992734495755</v>
+        <v>0.3654678221761865</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5517454458410759</v>
+        <v>-1.444111617686435</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03753800628772042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.6501412802266667</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3852729168885622</v>
+        <v>0.7505840853966992</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.128521516766688</v>
+        <v>0.4496759460575175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9073432094584449</v>
+        <v>0.07247599799912258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8684851421312163</v>
+        <v>-0.6695845581123456</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03774840727556877</v>
+        <v>-0.255709838485354</v>
       </c>
       <c r="G7" t="n">
-        <v>2.215345986394486</v>
+        <v>0.3527877233989737</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3839787694408291</v>
+        <v>-1.632808749799094</v>
       </c>
       <c r="I7" t="n">
-        <v>0.381084805933327</v>
+        <v>0.4541038329994795</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6581813648959519</v>
+        <v>-0.8479737070094013</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.01989282121127</v>
+        <v>0.1079006910443631</v>
       </c>
     </row>
   </sheetData>
@@ -1476,214 +1346,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Calculation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>Warning Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>Explanatory Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>Headline 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>Headline 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>Headline 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="inlineStr">
+        <is>
+          <t>Hyperlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t>Followed Hyperlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="inlineStr">
+        <is>
+          <t>Linked Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="inlineStr">
+        <is>
+          <t>Check Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="28" t="inlineStr">
+        <is>
+          <t>20 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>40 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="30" t="inlineStr">
+        <is>
+          <t>60 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="31" t="inlineStr">
+        <is>
+          <t>Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="32" t="inlineStr">
+        <is>
+          <t>20 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="33" t="inlineStr">
+        <is>
+          <t>40 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="inlineStr">
+        <is>
+          <t>60 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="inlineStr">
+        <is>
+          <t>Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="36" t="inlineStr">
+        <is>
+          <t>20 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="37" t="inlineStr">
+        <is>
+          <t>40 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="38" t="inlineStr">
+        <is>
+          <t>60 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="39" t="inlineStr">
+        <is>
+          <t>Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t>20 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="41" t="inlineStr">
+        <is>
+          <t>40 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="inlineStr">
+        <is>
+          <t>60 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="44" t="inlineStr">
+        <is>
+          <t>20 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="45" t="inlineStr">
+        <is>
+          <t>40 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="46" t="inlineStr">
+        <is>
+          <t>60 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="47" t="inlineStr">
+        <is>
+          <t>Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="inlineStr">
+        <is>
+          <t>20 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="49" t="inlineStr">
+        <is>
+          <t>40 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="50" t="inlineStr">
+        <is>
+          <t>60 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Pandas</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1705,59 +1659,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
-        <v>0.3855013583759733</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>0.07592987436259124</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
-        <v>0.5885656073525397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>0.8163962595159479</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="n">
-        <v>0.693547391146485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>0.6704355827521932</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
-        <v>0.6287141555668755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>0.8372692951222943</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
-        <v>0.7934080216452501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>0.9062381837691816</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
-        <v>0.4755112895937286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>0.1138114682381248</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
-        <v>0.2311673250043259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>0.8697360566616265</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
-        <v>0.8085753766406356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>0.8082037768454382</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
-        <v>0.6670202361855581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>0.4933902079333587</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
-        <v>0.7901458304643063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>0.5309030256573027</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
-        <v>0.5542863064069712</v>
+        <v>0.3536324022467475</v>
       </c>
     </row>
   </sheetData>

--- a/Exercises/1.Machine Learning/Code/0.General/test.xlsx
+++ b/Exercises/1.Machine Learning/Code/0.General/test.xlsx
@@ -1,23 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Warning Text</t>
+  </si>
+  <si>
+    <t>Explanatory Text</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Headline 2</t>
+  </si>
+  <si>
+    <t>Headline 3</t>
+  </si>
+  <si>
+    <t>Headline 4</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Followed Hyperlink</t>
+  </si>
+  <si>
+    <t>Linked Cell</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Check Cell</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>20 % - Accent1</t>
+  </si>
+  <si>
+    <t>40 % - Accent1</t>
+  </si>
+  <si>
+    <t>60 % - Accent1</t>
+  </si>
+  <si>
+    <t>Accent2</t>
+  </si>
+  <si>
+    <t>20 % - Accent2</t>
+  </si>
+  <si>
+    <t>40 % - Accent2</t>
+  </si>
+  <si>
+    <t>60 % - Accent2</t>
+  </si>
+  <si>
+    <t>Accent3</t>
+  </si>
+  <si>
+    <t>20 % - Accent3</t>
+  </si>
+  <si>
+    <t>40 % - Accent3</t>
+  </si>
+  <si>
+    <t>60 % - Accent3</t>
+  </si>
+  <si>
+    <t>Accent4</t>
+  </si>
+  <si>
+    <t>20 % - Accent4</t>
+  </si>
+  <si>
+    <t>40 % - Accent4</t>
+  </si>
+  <si>
+    <t>60 % - Accent4</t>
+  </si>
+  <si>
+    <t>Accent5</t>
+  </si>
+  <si>
+    <t>20 % - Accent5</t>
+  </si>
+  <si>
+    <t>40 % - Accent5</t>
+  </si>
+  <si>
+    <t>60 % - Accent5</t>
+  </si>
+  <si>
+    <t>Accent6</t>
+  </si>
+  <si>
+    <t>20 % - Accent6</t>
+  </si>
+  <si>
+    <t>40 % - Accent6</t>
+  </si>
+  <si>
+    <t>60 % - Accent6</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,7 +793,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -677,13 +808,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -980,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,18 +1119,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="n">
         <v>40380</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1045,12 +1175,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="D2" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="n">
         <v>138</v>
       </c>
@@ -1061,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -1069,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -1083,7 +1213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1097,7 +1227,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1115,7 +1245,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="6" t="n">
         <v>0</v>
@@ -1148,183 +1278,183 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="n"/>
       <c r="B2" s="10" t="n"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.165182950264268</v>
+        <v>2.83750357393654</v>
       </c>
       <c r="C3" t="n">
-        <v>2.321477079594849</v>
+        <v>-0.08141693087938023</v>
       </c>
       <c r="D3" t="n">
-        <v>2.432609835191326</v>
+        <v>-0.8626674183794762</v>
       </c>
       <c r="E3" t="n">
-        <v>0.520856831676422</v>
+        <v>0.1001447514284246</v>
       </c>
       <c r="F3" t="n">
-        <v>0.287588238344549</v>
+        <v>-0.939384524701439</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.350166219917216</v>
+        <v>-2.357404808618563</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.597783249830729</v>
+        <v>2.850096480836515</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3998621809156324</v>
+        <v>-1.303888188846622</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.293041147769337</v>
+        <v>0.56175646312604</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.027401032638613</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.3490565404902253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2733655803237659</v>
+        <v>-0.5291674820850205</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.006102067294422192</v>
+        <v>1.162900611806159</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.248255909476067</v>
+        <v>0.5329565741494275</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5226460869889649</v>
+        <v>1.028100554448477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3804293168102227</v>
+        <v>-0.7089270363863656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7508342310834417</v>
+        <v>1.545285323557759</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3790812800021143</v>
+        <v>-0.5465971026781314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3198372674635649</v>
+        <v>0.2600687916891075</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1012404347716631</v>
+        <v>-0.9523986577987122</v>
       </c>
       <c r="K4" t="n">
-        <v>1.664464432320891</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1.325086223920433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1.704629769026192</v>
+        <v>-0.2371052095168553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7288057424966128</v>
+        <v>-0.8851328826450447</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5476298903173701</v>
+        <v>-0.08534813006132023</v>
       </c>
       <c r="E5" t="n">
-        <v>1.607312653427584</v>
+        <v>-1.718582797868692</v>
       </c>
       <c r="F5" t="n">
-        <v>1.192772156029819</v>
+        <v>-0.7405865547317888</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.381309533808121</v>
+        <v>0.2050677099812212</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3634733876329173</v>
+        <v>-0.7053602824309083</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2008458027606676</v>
+        <v>0.1734561396041643</v>
       </c>
       <c r="J5" t="n">
-        <v>0.763382910127209</v>
+        <v>-0.150058360724581</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.5407204354770876</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.6289193524437763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1.519539863110409</v>
+        <v>0.4347301000946456</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.664767485940177</v>
+        <v>-0.2858927256989217</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5738394042855993</v>
+        <v>1.032049057153812</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2216914280459178</v>
+        <v>-0.395319886177412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000566851136783025</v>
+        <v>-0.1746274763728261</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.029423694700266</v>
+        <v>-1.722627335757963</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8524508315476202</v>
+        <v>-1.086282572533863</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3654678221761865</v>
+        <v>-0.5176729092108204</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.444111617686435</v>
+        <v>-1.711599686471328</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6501412802266667</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1.489646688586987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7505840853966992</v>
+        <v>-1.206553806961417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4496759460575175</v>
+        <v>-0.4783646018648303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07247599799912258</v>
+        <v>0.4792278281644734</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6695845581123456</v>
+        <v>0.5057837692652691</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.255709838485354</v>
+        <v>-1.017986368206501</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3527877233989737</v>
+        <v>-0.3869914473428913</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.632808749799094</v>
+        <v>-0.1947771897265586</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4541038329994795</v>
+        <v>0.1184121648336898</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8479737070094013</v>
+        <v>0.7502804956896104</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1079006910443631</v>
+        <v>0.1907385404099472</v>
       </c>
     </row>
   </sheetData>
@@ -1346,298 +1476,214 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Warning Text</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Explanatory Text</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Headline 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Headline 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>Headline 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Hyperlink</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t>Followed Hyperlink</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>Linked Cell</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="inlineStr">
-        <is>
-          <t>Input</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="inlineStr">
-        <is>
-          <t>Output</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24" t="inlineStr">
-        <is>
-          <t>Check Cell</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="25" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="inlineStr">
-        <is>
-          <t>Bad</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="28" t="inlineStr">
-        <is>
-          <t>20 % - Accent1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="29" t="inlineStr">
-        <is>
-          <t>40 % - Accent1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="30" t="inlineStr">
-        <is>
-          <t>60 % - Accent1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="31" t="inlineStr">
-        <is>
-          <t>Accent2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="32" t="inlineStr">
-        <is>
-          <t>20 % - Accent2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="33" t="inlineStr">
-        <is>
-          <t>40 % - Accent2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="34" t="inlineStr">
-        <is>
-          <t>60 % - Accent2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="35" t="inlineStr">
-        <is>
-          <t>Accent3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="36" t="inlineStr">
-        <is>
-          <t>20 % - Accent3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="37" t="inlineStr">
-        <is>
-          <t>40 % - Accent3</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="38" t="inlineStr">
-        <is>
-          <t>60 % - Accent3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="39" t="inlineStr">
-        <is>
-          <t>Accent4</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="40" t="inlineStr">
-        <is>
-          <t>20 % - Accent4</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="41" t="inlineStr">
-        <is>
-          <t>40 % - Accent4</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="42" t="inlineStr">
-        <is>
-          <t>60 % - Accent4</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="43" t="inlineStr">
-        <is>
-          <t>Accent5</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="44" t="inlineStr">
-        <is>
-          <t>20 % - Accent5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="45" t="inlineStr">
-        <is>
-          <t>40 % - Accent5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="46" t="inlineStr">
-        <is>
-          <t>60 % - Accent5</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="47" t="inlineStr">
-        <is>
-          <t>Accent6</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="48" t="inlineStr">
-        <is>
-          <t>20 % - Accent6</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="49" t="inlineStr">
-        <is>
-          <t>40 % - Accent6</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="50" t="inlineStr">
-        <is>
-          <t>60 % - Accent6</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Pandas</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1659,59 +1705,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>0.07592987436259124</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0.2846040291830996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>0.8163962595159479</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.574685087108962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>0.6704355827521932</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.1855496460509614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>0.8372692951222943</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.9156489547669397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>0.9062381837691816</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.2773546193766175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>0.1138114682381248</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.8380144949348545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>0.8697360566616265</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.9786641809276735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>0.8082037768454382</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.9327922165561181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>0.4933902079333587</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.09707329324427239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>0.5309030256573027</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.8335815378781818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>0.3536324022467475</v>
+        <v>0.7937640981458226</v>
       </c>
     </row>
   </sheetData>
